--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2e2f5885d36bf4d/School/CSE 4391/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\OneDrive\School\CSE 4391\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Schedule &amp; Milestones</t>
   </si>
@@ -45,6 +48,12 @@
   </si>
   <si>
     <t>Milestone</t>
+  </si>
+  <si>
+    <t>Meeting with Kamangar 6pm</t>
+  </si>
+  <si>
+    <t>Set up environment for serverside graphic browser</t>
   </si>
 </sst>
 </file>
@@ -83,17 +92,45 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -384,38 +421,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -438,229 +475,276 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>42394</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>42396</v>
       </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>42398</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>42401</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>42403</v>
       </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>42405</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>42408</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>42410</v>
       </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>42412</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>42415</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>42417</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>42419</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>42422</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>42424</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>42426</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>42429</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>42431</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>42433</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>42436</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>42438</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>42440</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>42443</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>42445</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>42447</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>42450</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>42452</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>42454</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>42457</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>42459</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>42461</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>42464</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>42466</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>42468</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>42471</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>42473</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>42475</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>42478</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>42480</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>42482</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>42485</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>42487</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>42489</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>42492</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>42494</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>42496</v>
       </c>
     </row>
